--- a/means4_Schwann_d.xlsx
+++ b/means4_Schwann_d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChristerSylven/Desktop/CMC_ms/GitHub_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChristerSylven/Human-Prenatal-Cardiomyocytes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA3D7D6-C99C-6C4C-BFB7-59248871EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1C7574-99CE-AF46-ADBA-F2D017E0FEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="7260" windowWidth="31640" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="3340" windowWidth="25600" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="109">
   <si>
     <t>2|15</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>PGF_FLT1 complex</t>
+  </si>
+  <si>
+    <t>PROS1_AXL</t>
   </si>
 </sst>
 </file>
@@ -406,18 +409,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,46 +757,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.83203125" style="4"/>
+    <col min="1" max="10" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -818,49 +819,49 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>1.0989010989010988</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
       </c>
       <c r="P2" t="s">
@@ -868,49 +869,49 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.2222222222222223</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.4285714285714286</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>4.7619047619047619</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.5384615384615383</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
         <v>4.166666666666667</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
         <v>17</v>
       </c>
       <c r="P3" t="s">
@@ -918,49 +919,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>7.6923076923076916</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>7.6923076923076916</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.6666666666666667</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2.5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>2.3809523809523809</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.5641025641025639</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.69444444444444442</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
         <v>17</v>
       </c>
       <c r="P4" t="s">
@@ -968,49 +969,49 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3.7037037037037033</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.9230769230769229</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>4.3478260869565215</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1.0989010989010988</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3.4482758620689657</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="P5" t="s">
@@ -1018,49 +1019,49 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>12.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>11.111111111111111</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>11.111111111111111</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>1.2195121951219512</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>11.111111111111111</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
         <v>17</v>
       </c>
       <c r="P6" t="s">
@@ -1068,49 +1069,49 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3.7037037037037033</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3.4482758620689657</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4.3478260869565215</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3.0303030303030303</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.7857142857142856</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1.0989010989010988</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -1118,49 +1119,49 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>7.6923076923076916</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>9.0909090909090917</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>16.666666666666668</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>7.6923076923076916</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>7.1428571428571423</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1.2195121951219512</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
         <v>17</v>
       </c>
       <c r="P8" t="s">
@@ -1168,49 +1169,49 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.09</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>0.05</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0.64</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>0.68</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>0.54</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>0.12</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>0.41</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
         <v>17</v>
       </c>
       <c r="P9" t="s">
@@ -1218,49 +1219,49 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>0.19</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
         <v>0.21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.69</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>0.17</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0.47</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>0.48</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>1.98</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>0.12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>0.4</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" t="s">
         <v>17</v>
       </c>
       <c r="P10" t="s">
@@ -1268,49 +1269,49 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>0.04</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>0.06</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>0.03</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>1.06</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>0.66</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>0.25</v>
       </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>0.84</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
         <v>17</v>
       </c>
       <c r="P11" t="s">
@@ -1318,49 +1319,49 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.15</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>0.1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>0.04</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>1.01</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>0.62</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>0.2</v>
       </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <v>0.79</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
         <v>17</v>
       </c>
       <c r="P12" t="s">
@@ -1368,49 +1369,49 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>0.04</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>0.06</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>0.03</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>0.47</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>0.48</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>0.25</v>
       </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.4</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
         <v>17</v>
       </c>
       <c r="P13" t="s">
@@ -1418,49 +1419,49 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>1.8518518518518516</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>1.8867924528301885</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>1.3888888888888888</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>2.5</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>1.7241379310344829</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>1.0309278350515465</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>1.0309278350515465</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>0.93457943925233644</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>0.69930069930069938</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>0.90909090909090906</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
         <v>17</v>
       </c>
       <c r="P14" t="s">
@@ -1468,49 +1469,49 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>1.2987012987012987</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>1.3157894736842106</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>1.0416666666666667</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>1.5873015873015872</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>1.2345679012345678</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>0.6097560975609756</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>0.63694267515923564</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>0.62893081761006286</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>0.60240963855421692</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>0.68493150684931503</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
         <v>17</v>
       </c>
       <c r="P15" t="s">
@@ -1518,49 +1519,49 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>0.5</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>0.48</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>0.68</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>0.35</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>0.53</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>0.92</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>0.94</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>0.92</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>0.98</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>0.92</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" t="s">
         <v>17</v>
       </c>
       <c r="P16" t="s">
@@ -1568,49 +1569,49 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>0.13</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>0.12</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>0.13</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>0.38</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>0.13</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>0.1</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>0.09</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>0.08</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <v>0.09</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
         <v>17</v>
       </c>
       <c r="P17" t="s">
@@ -1618,49 +1619,49 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>0.16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>0.15</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>0.16</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>0.41</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>0.16</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>0.06</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>0.11</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>0.13</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
         <v>17</v>
       </c>
       <c r="P18" t="s">
@@ -1668,49 +1669,49 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>0.85</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>0.78</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>0.7</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>1.54</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>0.23</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>0.13</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>0.15</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>0.1</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>0.13</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>0.1</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
         <v>17</v>
       </c>
       <c r="P19" t="s">
@@ -1718,49 +1719,49 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>1.79</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>0.41</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>0.2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>0.13</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>2.1</v>
       </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
         <v>17</v>
       </c>
       <c r="P20" t="s">
@@ -1768,49 +1769,49 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>0.89</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>0.82</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>0.74</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>1.57</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>0.26</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>0.09</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>0.08</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>0.13</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>0.21</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>0.1</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" t="s">
         <v>17</v>
       </c>
       <c r="P21" t="s">
@@ -1818,49 +1819,49 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>1.2195121951219512</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>1.5625</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>1.3157894736842106</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" t="s">
         <v>16</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
         <v>17</v>
       </c>
       <c r="P22" t="s">
@@ -1868,49 +1869,49 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>1.6666666666666667</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>1.9607843137254901</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>2.0408163265306123</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="3" t="s">
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
         <v>17</v>
       </c>
       <c r="P23" t="s">
@@ -1918,49 +1919,49 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>1.4084507042253522</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>1.4925373134328357</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>2.0408163265306123</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
         <v>2.0408163265306123</v>
       </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" t="s">
         <v>16</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" t="s">
         <v>17</v>
       </c>
       <c r="P24" t="s">
@@ -1968,49 +1969,49 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>0.5</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>0.63</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>0.49</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="3" t="s">
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" t="s">
         <v>17</v>
       </c>
       <c r="P25" t="s">
@@ -2018,49 +2019,49 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>9.0909090909090917</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>2.8571428571428572</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>2.7027027027027026</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>2.9411764705882351</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <v>0.71942446043165476</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>4</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="3" t="s">
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
         <v>17</v>
       </c>
       <c r="P26" t="s">
@@ -2068,49 +2069,49 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>13.5</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>20.05</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>8.39</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>5.84</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>12.99</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>7.12</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>7.21</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>7.15</v>
       </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
         <v>7.36</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" t="s">
         <v>42</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
         <v>17</v>
       </c>
       <c r="P27" t="s">
@@ -2118,49 +2119,49 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>31.53</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>10.43</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>3.68</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>13.48</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>2.41</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
         <v>2.66</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
         <v>17</v>
       </c>
       <c r="P28" t="s">
@@ -2168,49 +2169,49 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>0.12</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>0.19</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>0.12</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>1.04</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>0.12</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>0.05</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>0.03</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>0.03</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="3">
         <v>0.16</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>0.06</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" t="s">
         <v>17</v>
       </c>
       <c r="P29" t="s">
@@ -2218,49 +2219,49 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>2.7777777777777777</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>2.7777777777777777</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>5</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>25</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>12.5</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="3" t="s">
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" t="s">
         <v>17</v>
       </c>
       <c r="P30" t="s">
@@ -2268,49 +2269,49 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>3.125</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>1.1363636363636365</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>9.0909090909090917</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>5.8823529411764701</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>7.1428571428571423</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>7.6923076923076916</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="3">
         <v>4</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="3" t="s">
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" t="s">
         <v>17</v>
       </c>
       <c r="P31" t="s">
@@ -2318,49 +2319,49 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>3.8461538461538458</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>3.8461538461538458</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>9.0909090909090917</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <v>5</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <v>2.1276595744680851</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>5.8823529411764701</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <v>1.4285714285714286</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="3" t="s">
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" t="s">
         <v>17</v>
       </c>
       <c r="P32" t="s">
@@ -2368,49 +2369,49 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>3.7037037037037033</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>4.166666666666667</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="3">
         <v>3.8461538461538458</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>14.285714285714285</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="3">
         <v>16.666666666666668</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="3">
         <v>20</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="3">
         <v>12.5</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" t="s">
         <v>16</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="3" t="s">
+      <c r="N33" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" t="s">
         <v>17</v>
       </c>
       <c r="P33" t="s">
@@ -2418,49 +2419,49 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>0.31</v>
       </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
         <v>0.31</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
         <v>0.37</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>0.31</v>
       </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" t="s">
         <v>17</v>
       </c>
       <c r="P34" t="s">
@@ -2468,49 +2469,49 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>6.25</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>6.25</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>2.2727272727272729</v>
       </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3" t="s">
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="3" t="s">
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" t="s">
         <v>17</v>
       </c>
       <c r="P35" t="s">
@@ -2518,49 +2519,49 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>3.0303030303030303</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <v>1.6949152542372883</v>
       </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="3" t="s">
+      <c r="N36" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
         <v>17</v>
       </c>
       <c r="P36" t="s">
@@ -2568,49 +2569,49 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>5.8823529411764701</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="3">
         <v>5.8823529411764701</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>6.25</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>2.7027027027027026</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="3">
         <v>2.8571428571428572</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <v>1.7241379310344829</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="3">
         <v>9.0909090909090917</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="3">
         <v>2.1276595744680851</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="3" t="s">
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" t="s">
         <v>17</v>
       </c>
       <c r="P37" t="s">
@@ -2618,49 +2619,49 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>3.125</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="3">
         <v>3.125</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <v>2.9411764705882351</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <v>2.9411764705882351</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>5.8823529411764701</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="3">
         <v>5.5555555555555554</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="3">
         <v>2.1276595744680851</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="3">
         <v>5</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="3" t="s">
+      <c r="N38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" t="s">
         <v>17</v>
       </c>
       <c r="P38" t="s">
@@ -2668,49 +2669,49 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>33.333333333333336</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="3">
         <v>50</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>50</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="3">
         <v>25</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="3">
         <v>25</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="3">
         <v>9.0909090909090917</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="3">
         <v>1.0204081632653061</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="3">
         <v>7.1428571428571423</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O39" s="3" t="s">
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" t="s">
         <v>17</v>
       </c>
       <c r="P39" t="s">
@@ -2718,49 +2719,49 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
         <v>2.1739130434782608</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="3">
         <v>3.2258064516129035</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
-        <v>1</v>
-      </c>
-      <c r="H40" s="6">
-        <v>1</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3" t="s">
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
         <v>55</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" t="s">
         <v>17</v>
       </c>
       <c r="P40" t="s">
@@ -2768,49 +2769,49 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>2.3255813953488373</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="3">
         <v>0.87719298245614041</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>2.0833333333333335</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="3">
         <v>2.0408163265306123</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="3">
         <v>2.7027027027027026</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="3">
         <v>4.166666666666667</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="3">
         <v>2.7777777777777777</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="3">
         <v>1.8867924528301885</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="3">
         <v>3.8461538461538458</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="s">
         <v>17</v>
       </c>
       <c r="P41" t="s">
@@ -2818,49 +2819,49 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>0.98</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>0.33</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
         <v>0.34</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="3">
         <v>0.21</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>0.43</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="3">
         <v>0.4</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>0.64</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="3">
         <v>0.16</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>0.52</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" t="s">
         <v>17</v>
       </c>
       <c r="P42" t="s">
@@ -2868,49 +2869,49 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="3">
         <v>0.84</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>0.19</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>0.2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>0.17</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="3">
         <v>0.17</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>0.17</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="3">
         <v>1.03</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>0.19</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O43" s="3" t="s">
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" t="s">
         <v>17</v>
       </c>
       <c r="P43" t="s">
@@ -2918,49 +2919,49 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>0.17</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="3">
         <v>0.88</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>0.22</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>0.23</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="3">
         <v>0.11</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>0.3</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>0.65</v>
       </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
         <v>0.21</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>0.3</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="3" t="s">
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" t="s">
         <v>17</v>
       </c>
       <c r="P44" t="s">
@@ -2968,49 +2969,49 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>0.06</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="3">
         <v>0.06</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>0.05</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>0.08</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="3">
         <v>0.08</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>0.25</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>0.6</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>0.94</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="3">
         <v>0.15</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>0.24</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" t="s">
         <v>60</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="3" t="s">
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" t="s">
         <v>17</v>
       </c>
       <c r="P45" t="s">
@@ -3018,49 +3019,49 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>4.5454545454545459</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
         <v>1.0869565217391304</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>3.7037037037037033</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>3.5714285714285712</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>3.7037037037037033</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>4.7619047619047619</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>3.5714285714285712</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>3.125</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>4.3478260869565215</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46" s="3" t="s">
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" t="s">
         <v>17</v>
       </c>
       <c r="P46" t="s">
@@ -3068,49 +3069,49 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>1.7857142857142856</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="3">
         <v>1.2820512820512819</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>1.8181818181818181</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>11.111111111111111</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="3">
         <v>1.1904761904761905</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
         <v>62</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="3" t="s">
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" t="s">
         <v>17</v>
       </c>
       <c r="P47" t="s">
@@ -3118,49 +3119,49 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>1.8518518518518516</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>1.3333333333333333</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>1.9230769230769229</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>14.285714285714285</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="3">
         <v>1.2345679012345678</v>
       </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>1</v>
-      </c>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
-      <c r="J48" s="6">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" t="s">
         <v>16</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O48" s="3" t="s">
+      <c r="N48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" t="s">
         <v>17</v>
       </c>
       <c r="P48" t="s">
@@ -3168,49 +3169,49 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>2.8571428571428572</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="3">
         <v>4.7619047619047619</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>7.6923076923076916</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="3">
         <v>11.111111111111111</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="3">
         <v>6.666666666666667</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6">
-        <v>1</v>
-      </c>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
         <v>64</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" t="s">
         <v>16</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O49" s="3" t="s">
+      <c r="N49" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" t="s">
         <v>17</v>
       </c>
       <c r="P49" t="s">
@@ -3218,49 +3219,49 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>3.0303030303030303</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <v>5.2631578947368425</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="3">
         <v>10</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="3">
         <v>16.666666666666668</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6">
-        <v>1</v>
-      </c>
-      <c r="I50" s="6">
-        <v>1</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
         <v>65</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" t="s">
         <v>16</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50" s="3" t="s">
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="s">
         <v>17</v>
       </c>
       <c r="P50" t="s">
@@ -3268,49 +3269,49 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>0.33</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <v>0.31</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>0.33</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>0.32</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3">
         <v>0.36</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>0.44</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="3">
         <v>0.72</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="3">
         <v>0.46</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="3">
         <v>0.16</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="3">
         <v>0.46</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" t="s">
         <v>66</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O51" s="3" t="s">
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" t="s">
         <v>17</v>
       </c>
       <c r="P51" t="s">
@@ -3318,49 +3319,49 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>0.16</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>0.16</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="3">
         <v>0.15</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="3">
         <v>0.19</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>0.16</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="3">
         <v>0.19</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="3">
         <v>0.18</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="3">
         <v>0.19</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="3">
         <v>0.17</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" t="s">
         <v>67</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="3" t="s">
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" t="s">
         <v>17</v>
       </c>
       <c r="P52" t="s">
@@ -3368,49 +3369,49 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>0.16</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="3">
         <v>0.2</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="3">
         <v>0.24</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="3">
         <v>0.54</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="3">
         <v>0.24</v>
       </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>1</v>
-      </c>
-      <c r="I53" s="6">
-        <v>1</v>
-      </c>
-      <c r="J53" s="6">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" t="s">
         <v>68</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" s="3" t="s">
+      <c r="L53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" t="s">
         <v>17</v>
       </c>
       <c r="P53" t="s">
@@ -3418,49 +3419,49 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>0.22</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="3">
         <v>0.2</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>0.15</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="3">
         <v>0.34</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <v>0.1</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="3">
         <v>0.09</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="3">
         <v>0.09</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="3">
         <v>0.11</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="3">
         <v>0.08</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" t="s">
         <v>69</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O54" s="3" t="s">
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" t="s">
         <v>17</v>
       </c>
       <c r="P54" t="s">
@@ -3468,49 +3469,49 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>1.5151515151515151</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="3">
         <v>1.3513513513513513</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="3">
         <v>1.3157894736842106</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="3">
         <v>1.3888888888888888</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="3">
         <v>2.0833333333333335</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="3">
         <v>1.9607843137254901</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="3">
         <v>2.1739130434782608</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="3">
         <v>1.7241379310344829</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="3">
         <v>1.8867924528301885</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" t="s">
         <v>70</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" t="s">
         <v>16</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="3" t="s">
+      <c r="N55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" t="s">
         <v>17</v>
       </c>
       <c r="P55" t="s">
@@ -3518,49 +3519,49 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="3">
         <v>0.27</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="3">
         <v>0.38</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="3">
         <v>0.33</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="3">
         <v>0.32</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="3">
         <v>0.19</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="3">
         <v>0.21</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="3">
         <v>0.17</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="3">
         <v>0.13</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" t="s">
         <v>71</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O56" s="3" t="s">
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" t="s">
         <v>17</v>
       </c>
       <c r="P56" t="s">
@@ -3568,252 +3569,302 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.7</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>108</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B58" s="3">
         <v>2.2727272727272729</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C58" s="3">
         <v>2</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="3">
         <v>2.6315789473684212</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="3">
         <v>3.3333333333333335</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="3">
         <v>3.5714285714285712</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="3">
         <v>7.1428571428571423</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="3">
         <v>6.25</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="3">
         <v>8.3333333333333339</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J58" s="3">
         <v>12.5</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K58" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B59" s="3">
         <v>0.35</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C59" s="3">
         <v>0.06</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="3">
         <v>0.05</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="3">
         <v>0.15</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="3">
         <v>2.59</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="3">
         <v>2.64</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="3">
         <v>2.61</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="3">
         <v>2.54</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J59" s="3">
         <v>2.59</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K59" t="s">
         <v>73</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>2.62</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B60" s="3">
         <v>2.83</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C60" s="3">
         <v>2.54</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="3">
         <v>2.63</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="3">
         <v>2.62</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="3">
         <v>2.83</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="3">
         <v>2.54</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="3">
         <v>2.63</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K60" t="s">
         <v>74</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P59" t="s">
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>0.15</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B61" s="3">
         <v>0.19</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C61" s="3">
         <v>0.15</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="3">
         <v>0.78</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="3">
         <v>0.22</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="3">
         <v>0.22</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="3">
         <v>0.22</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H61" s="3">
         <v>0.27</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I61" s="3">
         <v>0.32</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J61" s="3">
         <v>0.24</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K61" t="s">
         <v>75</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>0.26</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B62" s="3">
         <v>0.26</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C62" s="3">
         <v>0.3</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="3">
         <v>0.36</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="3">
         <v>0.26</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="3">
         <v>0.26</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="3">
         <v>0.3</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="3">
         <v>0.36</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K62" t="s">
         <v>76</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" t="s">
         <v>76</v>
       </c>
     </row>
